--- a/backend/data/excel/attendance_log.xlsx
+++ b/backend/data/excel/attendance_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,6 +769,90 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MUSA_AL_AHMED_23040301118</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-11 09:37:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MUSA_AL_AHMED_23040301118</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-11 09:58:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ABDULLAH_AKBALIK_22040301102</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-12-11 09:58:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MUSA_AL_AHMED_23040301118</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-11 10:47:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MUSA_AL_AHMED_23040301118</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-12-11 11:12:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ABDULLAH_AKBALIK_22040301102</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-12-11 11:12:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MUSA_AL_AHMED_23040301118</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-12-11 11:14:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
